--- a/fl_senate.xlsx
+++ b/fl_senate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\OneDrive\Documents\GitHub\Trump-Clinton-by-Florida-state-leg-districts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="6EF53EAEBAF18902CBF73B6C15D43B886A3432E6" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{BFDF55EC-7CE6-426A-BDEC-4AC86BAAABF7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22470" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="22470" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fl_senate" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>h_dist</t>
   </si>
@@ -151,6 +152,21 @@
   </si>
   <si>
     <t>ss_total</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Dana Young</t>
+  </si>
+  <si>
+    <t>Annette Taddeo</t>
+  </si>
+  <si>
+    <t>Anitere Flores</t>
+  </si>
+  <si>
+    <t>Rene Garcia</t>
   </si>
 </sst>
 </file>
@@ -1073,18 +1089,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="9" width="9" customWidth="1"/>
+    <col min="1" max="9" width="9" customWidth="1"/>
     <col min="16" max="16" width="11.375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1142,8 +1160,11 @@
       <c r="S1" t="s">
         <v>38</v>
       </c>
+      <c r="T1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1166,55 +1187,58 @@
         <v>226250</v>
       </c>
       <c r="H2">
-        <f>B2+C2+D2</f>
+        <f t="shared" ref="H2:H26" si="0">B2+C2+D2</f>
         <v>468546</v>
       </c>
       <c r="I2">
-        <f>SUM(E2:G2)</f>
+        <f t="shared" ref="I2:I26" si="1">SUM(E2:G2)</f>
         <v>469300</v>
       </c>
       <c r="J2">
-        <f>I2-H2</f>
+        <f t="shared" ref="J2:J26" si="2">I2-H2</f>
         <v>754</v>
       </c>
       <c r="K2" s="4">
-        <f>B2/H2</f>
+        <f t="shared" ref="K2:K26" si="3">B2/H2</f>
         <v>0.52860124726280877</v>
       </c>
       <c r="L2" s="5">
-        <f>D2/H2</f>
+        <f t="shared" ref="L2:L26" si="4">D2/H2</f>
         <v>0.47139875273719123</v>
       </c>
       <c r="M2" s="4">
-        <f>E2/I2</f>
+        <f t="shared" ref="M2:M26" si="5">E2/I2</f>
         <v>0.41428084380992969</v>
       </c>
       <c r="N2" s="6">
-        <f>G2/I2</f>
+        <f t="shared" ref="N2:N26" si="6">G2/I2</f>
         <v>0.48210100149158319</v>
       </c>
       <c r="O2" s="5">
-        <f>F2/I2</f>
+        <f t="shared" ref="O2:O26" si="7">F2/I2</f>
         <v>0.10361815469848711</v>
       </c>
       <c r="P2">
-        <f>IF(K2&gt;L2,1,0)</f>
+        <f t="shared" ref="P2:P26" si="8">IF(K2&gt;L2,1,0)</f>
         <v>1</v>
       </c>
       <c r="Q2">
-        <f>IF(AND(N2&gt;M2,N2&gt;O2),1,0)</f>
+        <f t="shared" ref="Q2:Q26" si="9">IF(AND(N2&gt;M2,N2&gt;O2),1,0)</f>
         <v>1</v>
       </c>
       <c r="R2" t="str">
-        <f>P2&amp;Q2</f>
+        <f t="shared" ref="R2:R26" si="10">P2&amp;Q2</f>
         <v>11</v>
       </c>
       <c r="S2" s="7">
-        <f>N2-L2</f>
+        <f t="shared" ref="S2:S26" si="11">N2-L2</f>
         <v>1.0702248754391963E-2</v>
       </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1237,55 +1261,58 @@
         <v>100170</v>
       </c>
       <c r="H3">
-        <f>B3+C3+D3</f>
+        <f t="shared" si="0"/>
         <v>215403</v>
       </c>
       <c r="I3">
-        <f>SUM(E3:G3)</f>
+        <f t="shared" si="1"/>
         <v>197891</v>
       </c>
       <c r="J3">
-        <f>I3-H3</f>
+        <f t="shared" si="2"/>
         <v>-17512</v>
       </c>
       <c r="K3" s="4">
-        <f>B3/H3</f>
+        <f t="shared" si="3"/>
         <v>0.58360839914021623</v>
       </c>
       <c r="L3" s="5">
-        <f>D3/H3</f>
+        <f t="shared" si="4"/>
         <v>0.41639160085978377</v>
       </c>
       <c r="M3" s="4">
-        <f>E3/I3</f>
+        <f t="shared" si="5"/>
         <v>0.40704731392534271</v>
       </c>
       <c r="N3" s="6">
-        <f>G3/I3</f>
+        <f t="shared" si="6"/>
         <v>0.50618774982187165</v>
       </c>
       <c r="O3" s="5">
-        <f>F3/I3</f>
+        <f t="shared" si="7"/>
         <v>8.6764936252785627E-2</v>
       </c>
       <c r="P3">
-        <f>IF(K3&gt;L3,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q3">
-        <f>IF(AND(N3&gt;M3,N3&gt;O3),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R3" t="str">
-        <f>P3&amp;Q3</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="S3" s="7">
-        <f>N3-L3</f>
+        <f t="shared" si="11"/>
         <v>8.9796148962087874E-2</v>
       </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1308,55 +1335,58 @@
         <v>97343</v>
       </c>
       <c r="H4">
-        <f>B4+C4+D4</f>
+        <f t="shared" si="0"/>
         <v>199533</v>
       </c>
       <c r="I4">
-        <f>SUM(E4:G4)</f>
+        <f t="shared" si="1"/>
         <v>179460</v>
       </c>
       <c r="J4">
-        <f>I4-H4</f>
+        <f t="shared" si="2"/>
         <v>-20073</v>
       </c>
       <c r="K4" s="4">
-        <f>B4/H4</f>
+        <f t="shared" si="3"/>
         <v>0.55149273553748002</v>
       </c>
       <c r="L4" s="5">
-        <f>D4/H4</f>
+        <f t="shared" si="4"/>
         <v>0.44850726446251998</v>
       </c>
       <c r="M4" s="4">
-        <f>E4/I4</f>
+        <f t="shared" si="5"/>
         <v>0.45757829042683607</v>
       </c>
       <c r="N4" s="6">
-        <f>G4/I4</f>
+        <f t="shared" si="6"/>
         <v>0.54242170957316393</v>
       </c>
       <c r="O4" s="5">
-        <f>F4/I4</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>IF(K4&gt;L4,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q4">
-        <f>IF(AND(N4&gt;M4,N4&gt;O4),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R4" t="str">
-        <f>P4&amp;Q4</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="S4" s="7">
-        <f>N4-L4</f>
+        <f t="shared" si="11"/>
         <v>9.3914445110643952E-2</v>
       </c>
+      <c r="T4" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1379,55 +1409,58 @@
         <v>81972</v>
       </c>
       <c r="H5">
-        <f>B5+C5+D5</f>
+        <f t="shared" si="0"/>
         <v>162376</v>
       </c>
       <c r="I5">
-        <f>SUM(E5:G5)</f>
+        <f t="shared" si="1"/>
         <v>148975</v>
       </c>
       <c r="J5">
-        <f>I5-H5</f>
+        <f t="shared" si="2"/>
         <v>-13401</v>
       </c>
       <c r="K5" s="4">
-        <f>B5/H5</f>
+        <f t="shared" si="3"/>
         <v>0.57467236537419319</v>
       </c>
       <c r="L5" s="5">
-        <f>D5/H5</f>
+        <f t="shared" si="4"/>
         <v>0.42532763462580675</v>
       </c>
       <c r="M5" s="4">
-        <f>E5/I5</f>
+        <f t="shared" si="5"/>
         <v>0.44976002685014266</v>
       </c>
       <c r="N5" s="6">
-        <f>G5/I5</f>
+        <f t="shared" si="6"/>
         <v>0.5502399731498574</v>
       </c>
       <c r="O5" s="5">
-        <f>F5/I5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>IF(K5&gt;L5,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q5">
-        <f>IF(AND(N5&gt;M5,N5&gt;O5),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R5" t="str">
-        <f>P5&amp;Q5</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="S5" s="7">
-        <f>N5-L5</f>
+        <f t="shared" si="11"/>
         <v>0.12491233852405065</v>
       </c>
+      <c r="T5" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1450,55 +1483,55 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f>B6+C6+D6</f>
+        <f t="shared" si="0"/>
         <v>399074</v>
       </c>
       <c r="I6">
-        <f>SUM(E6:G6)</f>
+        <f t="shared" si="1"/>
         <v>302658</v>
       </c>
       <c r="J6">
-        <f>I6-H6</f>
+        <f t="shared" si="2"/>
         <v>-96416</v>
       </c>
       <c r="K6" s="4">
-        <f>B6/H6</f>
+        <f t="shared" si="3"/>
         <v>0.65746202458691871</v>
       </c>
       <c r="L6" s="5">
-        <f>D6/H6</f>
+        <f t="shared" si="4"/>
         <v>0.34253797541308129</v>
       </c>
       <c r="M6" s="4">
-        <f>E6/I6</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N6" s="6">
-        <f>G6/I6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O6" s="5">
-        <f>F6/I6</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>IF(K6&gt;L6,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q6">
-        <f>IF(AND(N6&gt;M6,N6&gt;O6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R6" t="str">
-        <f>P6&amp;Q6</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="S6" s="7">
-        <f>N6-L6</f>
+        <f t="shared" si="11"/>
         <v>-0.34253797541308129</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1521,55 +1554,55 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>B7+C7+D7</f>
+        <f t="shared" si="0"/>
         <v>182813</v>
       </c>
       <c r="I7">
-        <f>SUM(E7:G7)</f>
+        <f t="shared" si="1"/>
         <v>156759</v>
       </c>
       <c r="J7">
-        <f>I7-H7</f>
+        <f t="shared" si="2"/>
         <v>-26054</v>
       </c>
       <c r="K7" s="4">
-        <f>B7/H7</f>
+        <f t="shared" si="3"/>
         <v>0.77411343832222002</v>
       </c>
       <c r="L7" s="5">
-        <f>D7/H7</f>
+        <f t="shared" si="4"/>
         <v>0.22588656167778004</v>
       </c>
       <c r="M7" s="4">
-        <f>E7/I7</f>
+        <f t="shared" si="5"/>
         <v>0.75241612921746115</v>
       </c>
       <c r="N7" s="6">
-        <f>G7/I7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O7" s="5">
-        <f>F7/I7</f>
+        <f t="shared" si="7"/>
         <v>0.2475838707825388</v>
       </c>
       <c r="P7">
-        <f>IF(K7&gt;L7,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q7">
-        <f>IF(AND(N7&gt;M7,N7&gt;O7),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R7" t="str">
-        <f>P7&amp;Q7</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="S7" s="7">
-        <f>N7-L7</f>
+        <f t="shared" si="11"/>
         <v>-0.22588656167778004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1592,55 +1625,55 @@
         <v>154384</v>
       </c>
       <c r="H8">
-        <f>B8+C8+D8</f>
+        <f t="shared" si="0"/>
         <v>469564</v>
       </c>
       <c r="I8">
-        <f>SUM(E8:G8)</f>
+        <f t="shared" si="1"/>
         <v>472960</v>
       </c>
       <c r="J8">
-        <f>I8-H8</f>
+        <f t="shared" si="2"/>
         <v>3396</v>
       </c>
       <c r="K8" s="4">
-        <f>B8/H8</f>
+        <f t="shared" si="3"/>
         <v>0.54482456065626839</v>
       </c>
       <c r="L8" s="5">
-        <f>D8/H8</f>
+        <f t="shared" si="4"/>
         <v>0.45517543934373161</v>
       </c>
       <c r="M8" s="4">
-        <f>E8/I8</f>
+        <f t="shared" si="5"/>
         <v>0.67357916102841675</v>
       </c>
       <c r="N8" s="6">
-        <f>G8/I8</f>
+        <f t="shared" si="6"/>
         <v>0.32642083897158319</v>
       </c>
       <c r="O8" s="5">
-        <f>F8/I8</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>IF(K8&gt;L8,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q8">
-        <f>IF(AND(N8&gt;M8,N8&gt;O8),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R8" t="str">
-        <f>P8&amp;Q8</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="S8" s="7">
-        <f>N8-L8</f>
+        <f t="shared" si="11"/>
         <v>-0.12875460037214842</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1663,55 +1696,55 @@
         <v>75368</v>
       </c>
       <c r="H9">
-        <f>B9+C9+D9</f>
+        <f t="shared" si="0"/>
         <v>227495</v>
       </c>
       <c r="I9">
-        <f>SUM(E9:G9)</f>
+        <f t="shared" si="1"/>
         <v>204008</v>
       </c>
       <c r="J9">
-        <f>I9-H9</f>
+        <f t="shared" si="2"/>
         <v>-23487</v>
       </c>
       <c r="K9" s="4">
-        <f>B9/H9</f>
+        <f t="shared" si="3"/>
         <v>0.5972614782742478</v>
       </c>
       <c r="L9" s="5">
-        <f>D9/H9</f>
+        <f t="shared" si="4"/>
         <v>0.4027385217257522</v>
       </c>
       <c r="M9" s="4">
-        <f>E9/I9</f>
+        <f t="shared" si="5"/>
         <v>0.63056350731343869</v>
       </c>
       <c r="N9" s="6">
-        <f>G9/I9</f>
+        <f t="shared" si="6"/>
         <v>0.36943649268656131</v>
       </c>
       <c r="O9" s="5">
-        <f>F9/I9</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>IF(K9&gt;L9,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q9">
-        <f>IF(AND(N9&gt;M9,N9&gt;O9),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R9" t="str">
-        <f>P9&amp;Q9</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="S9" s="7">
-        <f>N9-L9</f>
+        <f t="shared" si="11"/>
         <v>-3.3302029039190884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1734,55 +1767,55 @@
         <v>139750</v>
       </c>
       <c r="H10">
-        <f>B10+C10+D10</f>
+        <f t="shared" si="0"/>
         <v>432336</v>
       </c>
       <c r="I10">
-        <f>SUM(E10:G10)</f>
+        <f t="shared" si="1"/>
         <v>422360</v>
       </c>
       <c r="J10">
-        <f>I10-H10</f>
+        <f t="shared" si="2"/>
         <v>-9976</v>
       </c>
       <c r="K10" s="4">
-        <f>B10/H10</f>
+        <f t="shared" si="3"/>
         <v>0.66360885977573003</v>
       </c>
       <c r="L10" s="5">
-        <f>D10/H10</f>
+        <f t="shared" si="4"/>
         <v>0.33639114022427002</v>
       </c>
       <c r="M10" s="4">
-        <f>E10/I10</f>
+        <f t="shared" si="5"/>
         <v>0.6691211288947817</v>
       </c>
       <c r="N10" s="6">
-        <f>G10/I10</f>
+        <f t="shared" si="6"/>
         <v>0.3308788711052183</v>
       </c>
       <c r="O10" s="5">
-        <f>F10/I10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>IF(K10&gt;L10,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q10">
-        <f>IF(AND(N10&gt;M10,N10&gt;O10),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R10" t="str">
-        <f>P10&amp;Q10</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="S10" s="7">
-        <f>N10-L10</f>
+        <f t="shared" si="11"/>
         <v>-5.512269119051727E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1805,55 +1838,55 @@
         <v>195724</v>
       </c>
       <c r="H11">
-        <f>B11+C11+D11</f>
+        <f t="shared" si="0"/>
         <v>498872</v>
       </c>
       <c r="I11">
-        <f>SUM(E11:G11)</f>
+        <f t="shared" si="1"/>
         <v>480588</v>
       </c>
       <c r="J11">
-        <f>I11-H11</f>
+        <f t="shared" si="2"/>
         <v>-18284</v>
       </c>
       <c r="K11" s="4">
-        <f>B11/H11</f>
+        <f t="shared" si="3"/>
         <v>0.61587741945829788</v>
       </c>
       <c r="L11" s="5">
-        <f>D11/H11</f>
+        <f t="shared" si="4"/>
         <v>0.38412258054170206</v>
       </c>
       <c r="M11" s="4">
-        <f>E11/I11</f>
+        <f t="shared" si="5"/>
         <v>0.59274055948130211</v>
       </c>
       <c r="N11" s="6">
-        <f>G11/I11</f>
+        <f t="shared" si="6"/>
         <v>0.40725944051869795</v>
       </c>
       <c r="O11" s="5">
-        <f>F11/I11</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>IF(K11&gt;L11,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q11">
-        <f>IF(AND(N11&gt;M11,N11&gt;O11),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R11" t="str">
-        <f>P11&amp;Q11</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="S11" s="7">
-        <f>N11-L11</f>
+        <f t="shared" si="11"/>
         <v>2.3136859976995883E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1876,55 +1909,55 @@
         <v>102390</v>
       </c>
       <c r="H12">
-        <f>B12+C12+D12</f>
+        <f t="shared" si="0"/>
         <v>230142</v>
       </c>
       <c r="I12">
-        <f>SUM(E12:G12)</f>
+        <f t="shared" si="1"/>
         <v>222588</v>
       </c>
       <c r="J12">
-        <f>I12-H12</f>
+        <f t="shared" si="2"/>
         <v>-7554</v>
       </c>
       <c r="K12" s="4">
-        <f>B12/H12</f>
+        <f t="shared" si="3"/>
         <v>0.56380408617288458</v>
       </c>
       <c r="L12" s="5">
-        <f>D12/H12</f>
+        <f t="shared" si="4"/>
         <v>0.43619591382711542</v>
       </c>
       <c r="M12" s="4">
-        <f>E12/I12</f>
+        <f t="shared" si="5"/>
         <v>0.54000215645048255</v>
       </c>
       <c r="N12" s="6">
-        <f>G12/I12</f>
+        <f t="shared" si="6"/>
         <v>0.4599978435495175</v>
       </c>
       <c r="O12" s="5">
-        <f>F12/I12</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>IF(K12&gt;L12,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q12">
-        <f>IF(AND(N12&gt;M12,N12&gt;O12),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R12" t="str">
-        <f>P12&amp;Q12</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="S12" s="7">
-        <f>N12-L12</f>
+        <f t="shared" si="11"/>
         <v>2.3801929722402082E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1947,55 +1980,55 @@
         <v>186888</v>
       </c>
       <c r="H13">
-        <f>B13+C13+D13</f>
+        <f t="shared" si="0"/>
         <v>448440</v>
       </c>
       <c r="I13">
-        <f>SUM(E13:G13)</f>
+        <f t="shared" si="1"/>
         <v>446084</v>
       </c>
       <c r="J13">
-        <f>I13-H13</f>
+        <f t="shared" si="2"/>
         <v>-2356</v>
       </c>
       <c r="K13" s="4">
-        <f>B13/H13</f>
+        <f t="shared" si="3"/>
         <v>0.61494068325751494</v>
       </c>
       <c r="L13" s="5">
-        <f>D13/H13</f>
+        <f t="shared" si="4"/>
         <v>0.38505931674248506</v>
       </c>
       <c r="M13" s="4">
-        <f>E13/I13</f>
+        <f t="shared" si="5"/>
         <v>0.58104751571452906</v>
       </c>
       <c r="N13" s="6">
-        <f>G13/I13</f>
+        <f t="shared" si="6"/>
         <v>0.41895248428547088</v>
       </c>
       <c r="O13" s="5">
-        <f>F13/I13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>IF(K13&gt;L13,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q13">
-        <f>IF(AND(N13&gt;M13,N13&gt;O13),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R13" t="str">
-        <f>P13&amp;Q13</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="S13" s="7">
-        <f>N13-L13</f>
+        <f t="shared" si="11"/>
         <v>3.3893167542985825E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2018,55 +2051,55 @@
         <v>81938</v>
       </c>
       <c r="H14">
-        <f>B14+C14+D14</f>
+        <f t="shared" si="0"/>
         <v>189547</v>
       </c>
       <c r="I14">
-        <f>SUM(E14:G14)</f>
+        <f t="shared" si="1"/>
         <v>179711</v>
       </c>
       <c r="J14">
-        <f>I14-H14</f>
+        <f t="shared" si="2"/>
         <v>-9836</v>
       </c>
       <c r="K14" s="4">
-        <f>B14/H14</f>
+        <f t="shared" si="3"/>
         <v>0.61327797327311961</v>
       </c>
       <c r="L14" s="5">
-        <f>D14/H14</f>
+        <f t="shared" si="4"/>
         <v>0.38672202672688039</v>
       </c>
       <c r="M14" s="4">
-        <f>E14/I14</f>
+        <f t="shared" si="5"/>
         <v>0.48852880458068787</v>
       </c>
       <c r="N14" s="6">
-        <f>G14/I14</f>
+        <f t="shared" si="6"/>
         <v>0.45594315317370665</v>
       </c>
       <c r="O14" s="5">
-        <f>F14/I14</f>
+        <f t="shared" si="7"/>
         <v>5.5528042245605445E-2</v>
       </c>
       <c r="P14">
-        <f>IF(K14&gt;L14,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q14">
-        <f>IF(AND(N14&gt;M14,N14&gt;O14),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R14" t="str">
-        <f>P14&amp;Q14</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="S14" s="7">
-        <f>N14-L14</f>
+        <f t="shared" si="11"/>
         <v>6.9221126446826264E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2089,55 +2122,55 @@
         <v>232928</v>
       </c>
       <c r="H15">
-        <f>B15+C15+D15</f>
+        <f t="shared" si="0"/>
         <v>463770</v>
       </c>
       <c r="I15">
-        <f>SUM(E15:G15)</f>
+        <f t="shared" si="1"/>
         <v>435450</v>
       </c>
       <c r="J15">
-        <f>I15-H15</f>
+        <f t="shared" si="2"/>
         <v>-28320</v>
       </c>
       <c r="K15" s="4">
-        <f>B15/H15</f>
+        <f t="shared" si="3"/>
         <v>0.46523923496560793</v>
       </c>
       <c r="L15" s="5">
-        <f>D15/H15</f>
+        <f t="shared" si="4"/>
         <v>0.53476076503439207</v>
       </c>
       <c r="M15" s="4">
-        <f>E15/I15</f>
+        <f t="shared" si="5"/>
         <v>0.46508669192789071</v>
       </c>
       <c r="N15" s="6">
-        <f>G15/I15</f>
+        <f t="shared" si="6"/>
         <v>0.53491330807210935</v>
       </c>
       <c r="O15" s="5">
-        <f>F15/I15</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f>IF(K15&gt;L15,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>IF(AND(N15&gt;M15,N15&gt;O15),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R15" t="str">
-        <f>P15&amp;Q15</f>
+        <f t="shared" si="10"/>
         <v>01</v>
       </c>
       <c r="S15" s="7">
-        <f>N15-L15</f>
+        <f t="shared" si="11"/>
         <v>1.5254303771727873E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2160,51 +2193,51 @@
         <v>315820</v>
       </c>
       <c r="H16">
-        <f>B16+C16+D16</f>
+        <f t="shared" si="0"/>
         <v>551456</v>
       </c>
       <c r="I16">
-        <f>SUM(E16:G16)</f>
+        <f t="shared" si="1"/>
         <v>537694</v>
       </c>
       <c r="J16">
-        <f>I16-H16</f>
+        <f t="shared" si="2"/>
         <v>-13762</v>
       </c>
       <c r="K16" s="4">
-        <f>B16/H16</f>
+        <f t="shared" si="3"/>
         <v>0.42506383102187661</v>
       </c>
       <c r="L16" s="5">
-        <f>D16/H16</f>
+        <f t="shared" si="4"/>
         <v>0.57493616897812339</v>
       </c>
       <c r="M16" s="4">
-        <f>E16/I16</f>
+        <f t="shared" si="5"/>
         <v>0.41263990299315223</v>
       </c>
       <c r="N16" s="6">
-        <f>G16/I16</f>
+        <f t="shared" si="6"/>
         <v>0.58736009700684777</v>
       </c>
       <c r="O16" s="5">
-        <f>F16/I16</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P16">
-        <f>IF(K16&gt;L16,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>IF(AND(N16&gt;M16,N16&gt;O16),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R16" t="str">
-        <f>P16&amp;Q16</f>
+        <f t="shared" si="10"/>
         <v>01</v>
       </c>
       <c r="S16" s="7">
-        <f>N16-L16</f>
+        <f t="shared" si="11"/>
         <v>1.2423928028724385E-2</v>
       </c>
     </row>
@@ -2231,51 +2264,51 @@
         <v>328292</v>
       </c>
       <c r="H17">
-        <f>B17+C17+D17</f>
+        <f t="shared" si="0"/>
         <v>535462</v>
       </c>
       <c r="I17">
-        <f>SUM(E17:G17)</f>
+        <f t="shared" si="1"/>
         <v>528474</v>
       </c>
       <c r="J17">
-        <f>I17-H17</f>
+        <f t="shared" si="2"/>
         <v>-6988</v>
       </c>
       <c r="K17" s="4">
-        <f>B17/H17</f>
+        <f t="shared" si="3"/>
         <v>0.39847832339176265</v>
       </c>
       <c r="L17" s="5">
-        <f>D17/H17</f>
+        <f t="shared" si="4"/>
         <v>0.60152167660823741</v>
       </c>
       <c r="M17" s="4">
-        <f>E17/I17</f>
+        <f t="shared" si="5"/>
         <v>0.37879252337863356</v>
       </c>
       <c r="N17" s="6">
-        <f>G17/I17</f>
+        <f t="shared" si="6"/>
         <v>0.62120747662136644</v>
       </c>
       <c r="O17" s="5">
-        <f>F17/I17</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P17">
-        <f>IF(K17&gt;L17,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>IF(AND(N17&gt;M17,N17&gt;O17),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R17" t="str">
-        <f>P17&amp;Q17</f>
+        <f t="shared" si="10"/>
         <v>01</v>
       </c>
       <c r="S17" s="7">
-        <f>N17-L17</f>
+        <f t="shared" si="11"/>
         <v>1.9685800013129029E-2</v>
       </c>
     </row>
@@ -2302,51 +2335,51 @@
         <v>348640</v>
       </c>
       <c r="H18">
-        <f>B18+C18+D18</f>
+        <f t="shared" si="0"/>
         <v>588182</v>
       </c>
       <c r="I18">
-        <f>SUM(E18:G18)</f>
+        <f t="shared" si="1"/>
         <v>545396</v>
       </c>
       <c r="J18">
-        <f>I18-H18</f>
+        <f t="shared" si="2"/>
         <v>-42786</v>
       </c>
       <c r="K18" s="4">
-        <f>B18/H18</f>
+        <f t="shared" si="3"/>
         <v>0.38382337439772041</v>
       </c>
       <c r="L18" s="5">
-        <f>D18/H18</f>
+        <f t="shared" si="4"/>
         <v>0.61617662560227959</v>
       </c>
       <c r="M18" s="4">
-        <f>E18/I18</f>
+        <f t="shared" si="5"/>
         <v>0.36075805469787092</v>
       </c>
       <c r="N18" s="6">
-        <f>G18/I18</f>
+        <f t="shared" si="6"/>
         <v>0.63924194530212908</v>
       </c>
       <c r="O18" s="5">
-        <f>F18/I18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P18">
-        <f>IF(K18&gt;L18,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>IF(AND(N18&gt;M18,N18&gt;O18),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R18" t="str">
-        <f>P18&amp;Q18</f>
+        <f t="shared" si="10"/>
         <v>01</v>
       </c>
       <c r="S18" s="7">
-        <f>N18-L18</f>
+        <f t="shared" si="11"/>
         <v>2.3065319699849485E-2</v>
       </c>
     </row>
@@ -2373,51 +2406,51 @@
         <v>239790</v>
       </c>
       <c r="H19">
-        <f>B19+C19+D19</f>
+        <f t="shared" si="0"/>
         <v>447296</v>
       </c>
       <c r="I19">
-        <f>SUM(E19:G19)</f>
+        <f t="shared" si="1"/>
         <v>455770</v>
       </c>
       <c r="J19">
-        <f>I19-H19</f>
+        <f t="shared" si="2"/>
         <v>8474</v>
       </c>
       <c r="K19" s="4">
-        <f>B19/H19</f>
+        <f t="shared" si="3"/>
         <v>0.4987748604950637</v>
       </c>
       <c r="L19" s="5">
-        <f>D19/H19</f>
+        <f t="shared" si="4"/>
         <v>0.5012251395049363</v>
       </c>
       <c r="M19" s="4">
-        <f>E19/I19</f>
+        <f t="shared" si="5"/>
         <v>0.47387936897996796</v>
       </c>
       <c r="N19" s="6">
-        <f>G19/I19</f>
+        <f t="shared" si="6"/>
         <v>0.52612063102003204</v>
       </c>
       <c r="O19" s="5">
-        <f>F19/I19</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P19">
-        <f>IF(K19&gt;L19,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f>IF(AND(N19&gt;M19,N19&gt;O19),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R19" t="str">
-        <f>P19&amp;Q19</f>
+        <f t="shared" si="10"/>
         <v>01</v>
       </c>
       <c r="S19" s="7">
-        <f>N19-L19</f>
+        <f t="shared" si="11"/>
         <v>2.4895491515095736E-2</v>
       </c>
     </row>
@@ -2444,51 +2477,51 @@
         <v>152943</v>
       </c>
       <c r="H20">
-        <f>B20+C20+D20</f>
+        <f t="shared" si="0"/>
         <v>240171</v>
       </c>
       <c r="I20">
-        <f>SUM(E20:G20)</f>
+        <f t="shared" si="1"/>
         <v>235971</v>
       </c>
       <c r="J20">
-        <f>I20-H20</f>
+        <f t="shared" si="2"/>
         <v>-4200</v>
       </c>
       <c r="K20" s="4">
-        <f>B20/H20</f>
+        <f t="shared" si="3"/>
         <v>0.44053195431588327</v>
       </c>
       <c r="L20" s="5">
-        <f>D20/H20</f>
+        <f t="shared" si="4"/>
         <v>0.55946804568411679</v>
       </c>
       <c r="M20" s="4">
-        <f>E20/I20</f>
+        <f t="shared" si="5"/>
         <v>0.3518567959622157</v>
       </c>
       <c r="N20" s="6">
-        <f>G20/I20</f>
+        <f t="shared" si="6"/>
         <v>0.64814320403778425</v>
       </c>
       <c r="O20" s="5">
-        <f>F20/I20</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P20">
-        <f>IF(K20&gt;L20,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f>IF(AND(N20&gt;M20,N20&gt;O20),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R20" t="str">
-        <f>P20&amp;Q20</f>
+        <f t="shared" si="10"/>
         <v>01</v>
       </c>
       <c r="S20" s="7">
-        <f>N20-L20</f>
+        <f t="shared" si="11"/>
         <v>8.867515835366746E-2</v>
       </c>
     </row>
@@ -2515,51 +2548,51 @@
         <v>317892</v>
       </c>
       <c r="H21">
-        <f>B21+C21+D21</f>
+        <f t="shared" si="0"/>
         <v>518892</v>
       </c>
       <c r="I21">
-        <f>SUM(E21:G21)</f>
+        <f t="shared" si="1"/>
         <v>464490</v>
       </c>
       <c r="J21">
-        <f>I21-H21</f>
+        <f t="shared" si="2"/>
         <v>-54402</v>
       </c>
       <c r="K21" s="4">
-        <f>B21/H21</f>
+        <f t="shared" si="3"/>
         <v>0.40429607702566239</v>
       </c>
       <c r="L21" s="5">
-        <f>D21/H21</f>
+        <f t="shared" si="4"/>
         <v>0.59570392297433761</v>
       </c>
       <c r="M21" s="4">
-        <f>E21/I21</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N21" s="6">
-        <f>G21/I21</f>
+        <f t="shared" si="6"/>
         <v>0.68438933023315895</v>
       </c>
       <c r="O21" s="5">
-        <f>F21/I21</f>
+        <f t="shared" si="7"/>
         <v>0.31561066976684105</v>
       </c>
       <c r="P21">
-        <f>IF(K21&gt;L21,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f>IF(AND(N21&gt;M21,N21&gt;O21),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R21" t="str">
-        <f>P21&amp;Q21</f>
+        <f t="shared" si="10"/>
         <v>01</v>
       </c>
       <c r="S21" s="7">
-        <f>N21-L21</f>
+        <f t="shared" si="11"/>
         <v>8.8685407258821347E-2</v>
       </c>
     </row>
@@ -2586,51 +2619,51 @@
         <v>399858</v>
       </c>
       <c r="H22">
-        <f>B22+C22+D22</f>
+        <f t="shared" si="0"/>
         <v>499550</v>
       </c>
       <c r="I22">
-        <f>SUM(E22:G22)</f>
+        <f t="shared" si="1"/>
         <v>399858</v>
       </c>
       <c r="J22">
-        <f>I22-H22</f>
+        <f t="shared" si="2"/>
         <v>-99692</v>
       </c>
       <c r="K22" s="4">
-        <f>B22/H22</f>
+        <f t="shared" si="3"/>
         <v>0.32731858672805525</v>
       </c>
       <c r="L22" s="5">
-        <f>D22/H22</f>
+        <f t="shared" si="4"/>
         <v>0.67268141327194475</v>
       </c>
       <c r="M22" s="4">
-        <f>E22/I22</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N22" s="6">
-        <f>G22/I22</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O22" s="5">
-        <f>F22/I22</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P22">
-        <f>IF(K22&gt;L22,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f>IF(AND(N22&gt;M22,N22&gt;O22),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R22" t="str">
-        <f>P22&amp;Q22</f>
+        <f t="shared" si="10"/>
         <v>01</v>
       </c>
       <c r="S22" s="7">
-        <f>N22-L22</f>
+        <f t="shared" si="11"/>
         <v>0.32731858672805525</v>
       </c>
     </row>
@@ -2657,51 +2690,51 @@
         <v>432468</v>
       </c>
       <c r="H23">
-        <f>B23+C23+D23</f>
+        <f t="shared" si="0"/>
         <v>573124</v>
       </c>
       <c r="I23">
-        <f>SUM(E23:G23)</f>
+        <f t="shared" si="1"/>
         <v>432468</v>
       </c>
       <c r="J23">
-        <f>I23-H23</f>
+        <f t="shared" si="2"/>
         <v>-140656</v>
       </c>
       <c r="K23" s="4">
-        <f>B23/H23</f>
+        <f t="shared" si="3"/>
         <v>0.34203069492814819</v>
       </c>
       <c r="L23" s="5">
-        <f>D23/H23</f>
+        <f t="shared" si="4"/>
         <v>0.65796930507185181</v>
       </c>
       <c r="M23" s="4">
-        <f>E23/I23</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N23" s="6">
-        <f>G23/I23</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O23" s="5">
-        <f>F23/I23</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P23">
-        <f>IF(K23&gt;L23,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>IF(AND(N23&gt;M23,N23&gt;O23),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R23" t="str">
-        <f>P23&amp;Q23</f>
+        <f t="shared" si="10"/>
         <v>01</v>
       </c>
       <c r="S23" s="7">
-        <f>N23-L23</f>
+        <f t="shared" si="11"/>
         <v>0.34203069492814819</v>
       </c>
     </row>
@@ -2728,51 +2761,51 @@
         <v>179126</v>
       </c>
       <c r="H24">
-        <f>B24+C24+D24</f>
+        <f t="shared" si="0"/>
         <v>246462</v>
       </c>
       <c r="I24">
-        <f>SUM(E24:G24)</f>
+        <f t="shared" si="1"/>
         <v>179126</v>
       </c>
       <c r="J24">
-        <f>I24-H24</f>
+        <f t="shared" si="2"/>
         <v>-67336</v>
       </c>
       <c r="K24" s="4">
-        <f>B24/H24</f>
+        <f t="shared" si="3"/>
         <v>0.37748212706218404</v>
       </c>
       <c r="L24" s="5">
-        <f>D24/H24</f>
+        <f t="shared" si="4"/>
         <v>0.62251787293781602</v>
       </c>
       <c r="M24" s="4">
-        <f>E24/I24</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N24" s="6">
-        <f>G24/I24</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O24" s="5">
-        <f>F24/I24</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f>IF(K24&gt;L24,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>IF(AND(N24&gt;M24,N24&gt;O24),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R24" t="str">
-        <f>P24&amp;Q24</f>
+        <f t="shared" si="10"/>
         <v>01</v>
       </c>
       <c r="S24" s="7">
-        <f>N24-L24</f>
+        <f t="shared" si="11"/>
         <v>0.37748212706218398</v>
       </c>
     </row>
@@ -2799,51 +2832,51 @@
         <v>181783</v>
       </c>
       <c r="H25">
-        <f>B25+C25+D25</f>
+        <f t="shared" si="0"/>
         <v>255049</v>
       </c>
       <c r="I25">
-        <f>SUM(E25:G25)</f>
+        <f t="shared" si="1"/>
         <v>181783</v>
       </c>
       <c r="J25">
-        <f>I25-H25</f>
+        <f t="shared" si="2"/>
         <v>-73266</v>
       </c>
       <c r="K25" s="4">
-        <f>B25/H25</f>
+        <f t="shared" si="3"/>
         <v>0.39803331908770473</v>
       </c>
       <c r="L25" s="5">
-        <f>D25/H25</f>
+        <f t="shared" si="4"/>
         <v>0.60196668091229533</v>
       </c>
       <c r="M25" s="4">
-        <f>E25/I25</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N25" s="6">
-        <f>G25/I25</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O25" s="5">
-        <f>F25/I25</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f>IF(K25&gt;L25,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>IF(AND(N25&gt;M25,N25&gt;O25),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R25" t="str">
-        <f>P25&amp;Q25</f>
+        <f t="shared" si="10"/>
         <v>01</v>
       </c>
       <c r="S25" s="7">
-        <f>N25-L25</f>
+        <f t="shared" si="11"/>
         <v>0.39803331908770467</v>
       </c>
     </row>
@@ -2870,51 +2903,51 @@
         <v>379028</v>
       </c>
       <c r="H26">
-        <f>B26+C26+D26</f>
+        <f t="shared" si="0"/>
         <v>481590</v>
       </c>
       <c r="I26">
-        <f>SUM(E26:G26)</f>
+        <f t="shared" si="1"/>
         <v>379028</v>
       </c>
       <c r="J26">
-        <f>I26-H26</f>
+        <f t="shared" si="2"/>
         <v>-102562</v>
       </c>
       <c r="K26" s="4">
-        <f>B26/H26</f>
+        <f t="shared" si="3"/>
         <v>0.43328972777673957</v>
       </c>
       <c r="L26" s="5">
-        <f>D26/H26</f>
+        <f t="shared" si="4"/>
         <v>0.56671027222326043</v>
       </c>
       <c r="M26" s="4">
-        <f>E26/I26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N26" s="6">
-        <f>G26/I26</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O26" s="5">
-        <f>F26/I26</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f>IF(K26&gt;L26,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>IF(AND(N26&gt;M26,N26&gt;O26),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R26" t="str">
-        <f>P26&amp;Q26</f>
+        <f t="shared" si="10"/>
         <v>01</v>
       </c>
       <c r="S26" s="7">
-        <f>N26-L26</f>
+        <f t="shared" si="11"/>
         <v>0.43328972777673957</v>
       </c>
     </row>
